--- a/DB/Vorlagen für BSP-Daten/Event.xlsx
+++ b/DB/Vorlagen für BSP-Daten/Event.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henri\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henri\Documents\GitHub\location-based-recommendations\DB\Vorlagen für BSP-Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{127E2290-725A-47A8-A4EF-90D3ABF553E0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E0E1A8-233A-498E-8985-CC7738454964}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="11490" windowHeight="4590" xr2:uid="{9534E945-7C34-4513-B816-820DF00FA453}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="11490" windowHeight="4590" xr2:uid="{9534E945-7C34-4513-B816-820DF00FA453}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>event_id</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>venue_id</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -388,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0347189E-8D83-4E0C-A6D6-6CE70796E6AA}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,7 +403,7 @@
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,6 +414,9 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/DB/Vorlagen für BSP-Daten/Event.xlsx
+++ b/DB/Vorlagen für BSP-Daten/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henri\Documents\GitHub\location-based-recommendations\DB\Vorlagen für BSP-Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E0E1A8-233A-498E-8985-CC7738454964}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E96198-E32F-457B-BDB2-45C458A1A153}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="11490" windowHeight="4590" xr2:uid="{9534E945-7C34-4513-B816-820DF00FA453}"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="11490" windowHeight="4590" xr2:uid="{9534E945-7C34-4513-B816-820DF00FA453}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>event_id</t>
   </si>
@@ -40,12 +40,39 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>Fußballabend</t>
+  </si>
+  <si>
+    <t>Happy Hour</t>
+  </si>
+  <si>
+    <t>event_description</t>
+  </si>
+  <si>
+    <t>Opening Gig Deichbrand</t>
+  </si>
+  <si>
+    <t>Finale Deichbrand</t>
+  </si>
+  <si>
+    <t>Lasst die Musik beginnen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studententreff </t>
+  </si>
+  <si>
+    <t>Schloga Open Air</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,8 +102,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -391,36 +420,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0347189E-8D83-4E0C-A6D6-6CE70796E6AA}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43322</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43322</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43668</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43670</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43335</v>
+      </c>
+      <c r="D6">
         <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43291</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.66666666666666663</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>